--- a/Element.xlsx
+++ b/Element.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HTML TAG" sheetId="1" r:id="rId1"/>
     <sheet name="CSS" sheetId="3" r:id="rId2"/>
     <sheet name="CSS property 목록" sheetId="4" r:id="rId3"/>
     <sheet name="단위" sheetId="5" r:id="rId4"/>
+    <sheet name="정렬명칭" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
   <si>
     <t>Element 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -732,12 +733,217 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>폰트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-variant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line-height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트크기(px,em)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트 굵기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이태릭체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은대문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄간격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-align</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertical-align</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-indent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter-spacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단락 가로방향 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left/top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center/top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right/top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left/middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center/middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right/middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left/bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center/bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right/bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img, 폼요소, 푝기준 세로정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들려쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대소문자 고정표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트에 위, 가운데, 아래 줄긋기 밑줄 없애기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자 간격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경이미지 위치 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 이미지 반복여부 결정
+가로만 반복, 세로만 반복, 반복 안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-attachment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경이미지 붙여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background css property 축약 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,8 +1047,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,8 +1090,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1014,6 +1261,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1023,7 +1290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1389,57 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,32 +1447,6 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1232,8 +1524,6 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1244,36 +1534,12 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1431,13 +1697,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1450,6 +1709,65 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1512,25 +1830,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:D9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:D9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="선택자 종류" dataDxfId="10"/>
-    <tableColumn id="2" name="사용 예" dataDxfId="9"/>
-    <tableColumn id="3" name="페이지번호" dataDxfId="8"/>
-    <tableColumn id="4" name="비고" dataDxfId="7"/>
+    <tableColumn id="1" name="선택자 종류" dataDxfId="8"/>
+    <tableColumn id="2" name="사용 예" dataDxfId="7"/>
+    <tableColumn id="3" name="페이지번호" dataDxfId="6"/>
+    <tableColumn id="4" name="비고" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="단위종류" dataDxfId="4"/>
-    <tableColumn id="2" name="의미" dataDxfId="3"/>
-    <tableColumn id="3" name="비고" dataDxfId="2"/>
+    <tableColumn id="1" name="단위종류" dataDxfId="2"/>
+    <tableColumn id="2" name="의미" dataDxfId="1"/>
+    <tableColumn id="3" name="비고" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1829,7 +2147,7 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="41.625" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="10" customWidth="1"/>
@@ -1837,7 +2155,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1859,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1870,7 +2188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +2199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1892,7 +2210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" customFormat="1" ht="34.5">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1903,7 +2221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" customFormat="1" ht="34.5">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1912,7 +2230,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1923,7 +2241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1932,35 +2250,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" customFormat="1">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -1969,19 +2287,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" customFormat="1">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1992,14 +2310,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" customFormat="1" ht="51.75">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" customFormat="1" ht="155.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" customFormat="1" ht="155.25">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -2010,7 +2328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2021,7 +2339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -2032,7 +2350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" customFormat="1">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -2043,7 +2361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -2054,7 +2372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" customFormat="1">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -2065,7 +2383,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" customFormat="1">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -2076,7 +2394,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" customFormat="1">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -2087,7 +2405,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2098,7 +2416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -2109,7 +2427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2120,7 +2438,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2131,7 +2449,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" customFormat="1">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -2142,7 +2460,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" customFormat="1">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2153,7 +2471,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" customFormat="1">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -2164,7 +2482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" customFormat="1">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -2175,7 +2493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:3" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" customFormat="1" ht="34.5">
       <c r="A35" s="5" t="s">
         <v>78</v>
       </c>
@@ -2186,7 +2504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" customFormat="1">
       <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2197,7 +2515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
@@ -2208,7 +2526,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:3" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" customFormat="1" ht="34.5">
       <c r="A38" s="6" t="s">
         <v>86</v>
       </c>
@@ -2219,7 +2537,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2228,7 +2546,7 @@
       </c>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>91</v>
       </c>
@@ -2237,7 +2555,7 @@
       </c>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>92</v>
       </c>
@@ -2262,7 +2580,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="12" customWidth="1"/>
@@ -2271,7 +2589,7 @@
     <col min="5" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>96</v>
       </c>
@@ -2285,7 +2603,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="22.5" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>99</v>
       </c>
@@ -2297,7 +2615,7 @@
       </c>
       <c r="D2" s="19"/>
     </row>
-    <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="22.5" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>101</v>
       </c>
@@ -2309,7 +2627,7 @@
       </c>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="22.5" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>120</v>
       </c>
@@ -2321,7 +2639,7 @@
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="34.5">
       <c r="A5" s="16" t="s">
         <v>105</v>
       </c>
@@ -2333,7 +2651,7 @@
       </c>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="34.5">
       <c r="A6" s="16" t="s">
         <v>108</v>
       </c>
@@ -2345,7 +2663,7 @@
       </c>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="69">
       <c r="A7" s="16" t="s">
         <v>111</v>
       </c>
@@ -2357,7 +2675,7 @@
       </c>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="23.25" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2371,7 +2689,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="34.5">
       <c r="A9" s="21" t="s">
         <v>121</v>
       </c>
@@ -2385,7 +2703,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="22.5" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>134</v>
       </c>
@@ -2402,37 +2720,357 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A1" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="36" t="s">
         <v>127</v>
       </c>
+      <c r="E1" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A4" s="37"/>
+      <c r="B4" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A8" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A9" s="41"/>
+      <c r="B9" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="39"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="41"/>
+      <c r="B10" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A11" s="41"/>
+      <c r="B11" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="39"/>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A12" s="41"/>
+      <c r="B12" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A13" s="41"/>
+      <c r="B13" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A14" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" spans="1:5" ht="33">
+      <c r="A16" s="47"/>
+      <c r="B16" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="39"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="39"/>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A20" s="42"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A21" s="44"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="39"/>
+    </row>
+    <row r="22" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A22" s="42"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A23" s="44"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="39"/>
+    </row>
+    <row r="24" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A24" s="42"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A25" s="44"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A27" s="44"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="39"/>
+    </row>
+    <row r="28" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A28" s="42"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="39"/>
+    </row>
+    <row r="30" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="40"/>
+    </row>
+    <row r="31" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D14:D19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2440,11 +3078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.75" style="25" customWidth="1"/>
     <col min="2" max="2" width="85" style="25" customWidth="1"/>
@@ -2452,7 +3090,7 @@
     <col min="4" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>129</v>
       </c>
@@ -2463,7 +3101,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>145</v>
       </c>
@@ -2472,7 +3110,7 @@
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
@@ -2483,7 +3121,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A4" s="26" t="s">
         <v>139</v>
       </c>
@@ -2492,7 +3130,7 @@
       </c>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
         <v>144</v>
       </c>
@@ -2501,7 +3139,7 @@
       </c>
       <c r="C5" s="28"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A6" s="26" t="s">
         <v>136</v>
       </c>
@@ -2510,7 +3148,7 @@
       </c>
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A7" s="26" t="s">
         <v>137</v>
       </c>
@@ -2519,7 +3157,7 @@
       </c>
       <c r="C7" s="28"/>
     </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A8" s="26" t="s">
         <v>140</v>
       </c>
@@ -2528,7 +3166,7 @@
       </c>
       <c r="C8" s="28"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="26" t="s">
         <v>141</v>
       </c>
@@ -2537,7 +3175,7 @@
       </c>
       <c r="C9" s="28"/>
     </row>
-    <row r="10" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A10" s="26" t="s">
         <v>142</v>
       </c>
@@ -2546,7 +3184,7 @@
       </c>
       <c r="C10" s="28"/>
     </row>
-    <row r="11" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A11" s="26" t="s">
         <v>143</v>
       </c>
@@ -2555,12 +3193,12 @@
       </c>
       <c r="C11" s="28"/>
     </row>
-    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="22.5" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="22.5" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>132</v>
       </c>
@@ -2576,4 +3214,56 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="39.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="39.75" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="39.75" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39.75" customHeight="1">
+      <c r="A3" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Element.xlsx
+++ b/Element.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="HTML TAG" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="CSS property 목록" sheetId="4" r:id="rId3"/>
     <sheet name="단위" sheetId="5" r:id="rId4"/>
     <sheet name="정렬명칭" sheetId="6" r:id="rId5"/>
+    <sheet name="박스모델" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="231">
   <si>
     <t>Element 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -936,6 +937,102 @@
   </si>
   <si>
     <t>background css property 축약 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스영역 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안쪽여백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바깥여백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p149</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,7 +1206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1263,15 +1360,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1290,7 +1378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,56 +1478,53 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1829,6 +1914,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>182191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="47627"/>
+          <a:ext cx="2581275" cy="1391864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:D9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:D9"/>
@@ -2143,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -2720,11 +2854,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -2737,330 +2871,358 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="34" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="39"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="40"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="39"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="33">
-      <c r="A16" s="47"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="40"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="40"/>
+      <c r="A20" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="39"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="40"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="39"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="40"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="39"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="40"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="39"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="40"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="39"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="40"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-    </row>
-    <row r="33" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="A8:A13"/>
@@ -3230,35 +3392,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="41" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3266,4 +3428,76 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:6">
+      <c r="E2" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="5:6">
+      <c r="E3" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6">
+      <c r="E4" s="48"/>
+      <c r="F4" s="41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6">
+      <c r="E5" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6">
+      <c r="E6" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6">
+      <c r="E7" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Element.xlsx
+++ b/Element.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HTML TAG" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="254">
   <si>
     <t>Element 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1033,6 +1033,104 @@
   </si>
   <si>
     <t>p149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이아웃(배치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스를 띄워서 좌우로 가로배치 떠 다니는 
+요소 뒤에 오는 요소는 그주위로 흐르게됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block -&gt; inline / inline-&gt; block
+요소의 성격을 바꿔줌
+박스를 숨김
+inline-block
+-&gt;성격 : inline / 박스모델 적용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스를 좌표로 배치
+박스를 독립된 형태로 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위를 벗어나는 부분을 어떻게 처리할지 정의한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top,bottom,left,right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position 속성과 함께 사용되며 박스위치의 좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스의 숨김 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스안의 내용이 박스크기보다 클때 넘치는 부분을 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1378,7 +1476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,22 +1606,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2277,7 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2856,16 +2966,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="32.875" customWidth="1"/>
   </cols>
@@ -2888,7 +2998,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -2897,68 +3007,68 @@
       <c r="C2" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="46" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="37" t="s">
         <v>159</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="37" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="47" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -2967,68 +3077,68 @@
       <c r="C8" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="43" t="s">
         <v>199</v>
       </c>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="39" t="s">
         <v>173</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="44"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="37" t="s">
         <v>174</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="37" t="s">
         <v>176</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="44"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="36" t="s">
         <v>177</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="43" t="s">
         <v>193</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3037,68 +3147,68 @@
       <c r="C14" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="43" t="s">
         <v>228</v>
       </c>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="46"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="36" t="s">
         <v>196</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="33">
-      <c r="A16" s="46"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="46"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="36" t="s">
         <v>200</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="46"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="46"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="37" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="46"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="36" t="s">
         <v>205</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="47"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>215</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -3113,7 +3223,7 @@
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="46"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="36" t="s">
         <v>217</v>
       </c>
@@ -3126,7 +3236,7 @@
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="37" t="s">
         <v>220</v>
       </c>
@@ -3139,7 +3249,7 @@
       <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="46"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="36" t="s">
         <v>222</v>
       </c>
@@ -3152,7 +3262,7 @@
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A24" s="47"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="37" t="s">
         <v>224</v>
       </c>
@@ -3164,64 +3274,113 @@
       </c>
       <c r="E24" s="37"/>
     </row>
-    <row r="25" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="40"/>
+    <row r="25" spans="1:5" ht="33">
+      <c r="A25" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>239</v>
+      </c>
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="E26" s="37"/>
     </row>
-    <row r="27" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="40"/>
+    <row r="27" spans="1:5" ht="82.5">
+      <c r="A27" s="51"/>
+      <c r="B27" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>240</v>
+      </c>
       <c r="E27" s="36"/>
     </row>
-    <row r="28" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
+    <row r="28" spans="1:5" ht="33">
+      <c r="A28" s="51"/>
+      <c r="B28" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>243</v>
+      </c>
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="40"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>245</v>
+      </c>
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>249</v>
+      </c>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>250</v>
+      </c>
       <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:5" ht="22.5" customHeight="1">
       <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>253</v>
+      </c>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A25:A31"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="D2:D7"/>

--- a/Element.xlsx
+++ b/Element.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="256">
   <si>
     <t>Element 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1131,6 +1131,16 @@
   </si>
   <si>
     <t>박스안의 내용이 박스크기보다 클때 넘치는 부분을 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z-index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스의 앞뒤 순서 결정
+0이상의 정수를 사용 숫자가 큰 값이 앞으로 나옴
+0일때 컨트롤 불가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1476,7 +1486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1606,6 +1616,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1624,17 +1646,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2964,11 +2980,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -2998,7 +3014,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -3007,68 +3023,68 @@
       <c r="C2" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="50" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A3" s="46"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="46"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="37" t="s">
         <v>159</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A5" s="46"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="37" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="46"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="51" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -3077,68 +3093,68 @@
       <c r="C8" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="47" t="s">
         <v>199</v>
       </c>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="39" t="s">
         <v>173</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="47"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="37" t="s">
         <v>174</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="44"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="47"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="37" t="s">
         <v>176</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="47"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="36" t="s">
         <v>177</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="47" t="s">
         <v>193</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3147,68 +3163,68 @@
       <c r="C14" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="47" t="s">
         <v>228</v>
       </c>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="36" t="s">
         <v>196</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="33">
-      <c r="A16" s="44"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="44"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="36" t="s">
         <v>200</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="44"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="37" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="44"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="36" t="s">
         <v>205</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="47" t="s">
         <v>215</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -3223,7 +3239,7 @@
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="36" t="s">
         <v>217</v>
       </c>
@@ -3236,7 +3252,7 @@
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="37" t="s">
         <v>220</v>
       </c>
@@ -3249,7 +3265,7 @@
       <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="44"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="36" t="s">
         <v>222</v>
       </c>
@@ -3262,7 +3278,7 @@
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="37" t="s">
         <v>224</v>
       </c>
@@ -3275,13 +3291,13 @@
       <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>231</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="43" t="s">
         <v>233</v>
       </c>
       <c r="D25" s="40" t="s">
@@ -3290,7 +3306,7 @@
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A26" s="51"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="37" t="s">
         <v>234</v>
       </c>
@@ -3303,11 +3319,11 @@
       <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="82.5">
-      <c r="A27" s="51"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="43" t="s">
         <v>237</v>
       </c>
       <c r="D27" s="40" t="s">
@@ -3316,7 +3332,7 @@
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="51"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="37" t="s">
         <v>241</v>
       </c>
@@ -3329,7 +3345,7 @@
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A29" s="51"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="36" t="s">
         <v>244</v>
       </c>
@@ -3342,7 +3358,7 @@
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A30" s="51"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="37" t="s">
         <v>247</v>
       </c>
@@ -3355,7 +3371,7 @@
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="36" t="s">
         <v>251</v>
       </c>
@@ -3377,6 +3393,17 @@
       </c>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="1:5" ht="49.5">
+      <c r="A33" s="53"/>
+      <c r="B33" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3614,7 +3641,7 @@
       </c>
     </row>
     <row r="3" spans="5:6">
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="52" t="s">
         <v>209</v>
       </c>
       <c r="F3" s="41" t="s">
@@ -3622,7 +3649,7 @@
       </c>
     </row>
     <row r="4" spans="5:6">
-      <c r="E4" s="48"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="41" t="s">
         <v>211</v>
       </c>

--- a/Element.xlsx
+++ b/Element.xlsx
@@ -1619,6 +1619,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1645,12 +1651,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2983,8 +2983,8 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -3014,7 +3014,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -3023,68 +3023,68 @@
       <c r="C2" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="52" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A3" s="50"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="37" t="s">
         <v>159</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="37" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="50"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -3093,68 +3093,68 @@
       <c r="C8" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="49" t="s">
         <v>199</v>
       </c>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="39" t="s">
         <v>173</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="37" t="s">
         <v>174</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="37" t="s">
         <v>176</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="36" t="s">
         <v>177</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>193</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3163,68 +3163,68 @@
       <c r="C14" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="49" t="s">
         <v>228</v>
       </c>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="36" t="s">
         <v>196</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="33">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="36" t="s">
         <v>200</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="37" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="49"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="36" t="s">
         <v>205</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="49" t="s">
         <v>215</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -3239,7 +3239,7 @@
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="36" t="s">
         <v>217</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="37" t="s">
         <v>220</v>
       </c>
@@ -3265,7 +3265,7 @@
       <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="48"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="36" t="s">
         <v>222</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A24" s="49"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="37" t="s">
         <v>224</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="46" t="s">
         <v>231</v>
       </c>
       <c r="B25" s="36" t="s">
@@ -3306,7 +3306,7 @@
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="37" t="s">
         <v>234</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="82.5">
-      <c r="A27" s="45"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="36" t="s">
         <v>236</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="45"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="37" t="s">
         <v>241</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="36" t="s">
         <v>244</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="37" t="s">
         <v>247</v>
       </c>
@@ -3371,14 +3371,14 @@
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="36" t="s">
         <v>251</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="40" t="s">
         <v>250</v>
       </c>
       <c r="E31" s="36"/>
@@ -3395,15 +3395,15 @@
       <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5" ht="49.5">
-      <c r="A33" s="53"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3641,7 +3641,7 @@
       </c>
     </row>
     <row r="3" spans="5:6">
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="54" t="s">
         <v>209</v>
       </c>
       <c r="F3" s="41" t="s">
@@ -3649,7 +3649,7 @@
       </c>
     </row>
     <row r="4" spans="5:6">
-      <c r="E4" s="52"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="41" t="s">
         <v>211</v>
       </c>

--- a/Element.xlsx
+++ b/Element.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HTML TAG" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="단위" sheetId="5" r:id="rId4"/>
     <sheet name="정렬명칭" sheetId="6" r:id="rId5"/>
     <sheet name="박스모델" sheetId="7" r:id="rId6"/>
+    <sheet name="이미지표현방법" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="283">
   <si>
     <t>Element 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1143,12 +1144,120 @@
 0일때 컨트롤 불가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>이미지표현방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.백터 이미지 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.비트맵 이미지 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpg, gif, png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표현방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.img 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.background 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표현방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 스프라이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹접근성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 한판에 여러 개의 이미지를 배치해서 하나의 이미지를 파일로 만든것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. css의 배경 처리 방식으로 사용함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 이미지 파일 요청 횟수를 줄여서 로딩 속도를 빠르게 하기 위해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. IR기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 도표,조직도 -&gt; IR 기법 사용할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://darum.daum.net/convention/css/css_ir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※ img 태그 사용하는 경우 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 스냅사진 처럼 이미지 자체가 중요한 컨텐츠가 되는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Database에 저장된 이미지를 표시해야 하는 경우 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex) &lt;div style="background-image:url(filename.jpg)"&gt;&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Database에 저장된 이미지를 배경으로 표시하는 방법: background-image를 인라인 방식으로 표기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,6 +1379,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1486,7 +1604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1625,6 +1743,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1650,6 +1771,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2982,9 +3124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -3014,7 +3156,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -3023,68 +3165,68 @@
       <c r="C2" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="53" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="37" t="s">
         <v>159</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="37" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -3093,68 +3235,68 @@
       <c r="C8" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="50" t="s">
         <v>199</v>
       </c>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="39" t="s">
         <v>173</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="37" t="s">
         <v>174</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="37" t="s">
         <v>176</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="50"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="36" t="s">
         <v>177</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>193</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3163,68 +3305,68 @@
       <c r="C14" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>228</v>
       </c>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="36" t="s">
         <v>196</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="33">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="36" t="s">
         <v>200</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="37" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="36" t="s">
         <v>205</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>215</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -3239,7 +3381,7 @@
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="36" t="s">
         <v>217</v>
       </c>
@@ -3252,7 +3394,7 @@
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="37" t="s">
         <v>220</v>
       </c>
@@ -3265,7 +3407,7 @@
       <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="36" t="s">
         <v>222</v>
       </c>
@@ -3278,7 +3420,7 @@
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="37" t="s">
         <v>224</v>
       </c>
@@ -3291,7 +3433,7 @@
       <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="47" t="s">
         <v>231</v>
       </c>
       <c r="B25" s="36" t="s">
@@ -3306,7 +3448,7 @@
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="37" t="s">
         <v>234</v>
       </c>
@@ -3319,7 +3461,7 @@
       <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="82.5">
-      <c r="A27" s="47"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="36" t="s">
         <v>236</v>
       </c>
@@ -3332,7 +3474,7 @@
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="47"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="37" t="s">
         <v>241</v>
       </c>
@@ -3345,7 +3487,7 @@
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="36" t="s">
         <v>244</v>
       </c>
@@ -3358,7 +3500,7 @@
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="37" t="s">
         <v>247</v>
       </c>
@@ -3371,7 +3513,7 @@
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="36" t="s">
         <v>251</v>
       </c>
@@ -3641,7 +3783,7 @@
       </c>
     </row>
     <row r="3" spans="5:6">
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="55" t="s">
         <v>209</v>
       </c>
       <c r="F3" s="41" t="s">
@@ -3649,7 +3791,7 @@
       </c>
     </row>
     <row r="4" spans="5:6">
-      <c r="E4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="41" t="s">
         <v>211</v>
       </c>
@@ -3686,4 +3828,165 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="46"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="46"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="44"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="44"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="44"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="44"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="44"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="44"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="44"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Element.xlsx
+++ b/Element.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="HTML TAG" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="정렬명칭" sheetId="6" r:id="rId5"/>
     <sheet name="박스모델" sheetId="7" r:id="rId6"/>
     <sheet name="이미지표현방법" sheetId="8" r:id="rId7"/>
+    <sheet name="CSS3" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="324">
   <si>
     <t>Element 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,17 +539,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:brfore
-:after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반드시 content:""; 가 들어가야 작동한다. 
-Inline 성격을 가진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1250,6 +1241,185 @@
   </si>
   <si>
     <t>(Database에 저장된 이미지를 배경으로 표시하는 방법: background-image를 인라인 방식으로 표기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:brfore
+:after
+:selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반드시 content:""; 가 들어가야 작동한다. 
+Inline 성격을 가진다.
+https://www.w3schools.com/css/css_pseudo_elements.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스 스타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">둥근모서리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p195~p201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-sizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding, border를
+width/height에 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 테두리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/css/css3_gradients.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/cssref/css3_pr_box-shadow.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/css/css3_box-sizing.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear-gradient() 함수 (선형)
+radial-gradient() 함수 (원형)
+를 사용해서 배경색을 gradient를
+적용할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 이미지 크기 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p207~210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/cssref/css3_pr_background-size.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p204~p207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-clip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경색 적용 범위 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p213~p214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p201~p211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 그림자 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/cssref/css3_pr_background-clip.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/cssref/css3_pr_background-origin.asp</t>
+  </si>
+  <si>
+    <t>word-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영단어를 줄바꿈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p216~217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/cssref/css3_pr_word-wrap.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/cssref/css3_pr_text-shadow.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/css/css3_border_images.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/css/css3_borders.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 이미지 적용 범위 지정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1604,7 +1774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1746,6 +1916,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1773,18 +1958,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1792,6 +1965,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2232,8 +2408,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:D9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:D10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="선택자 종류" dataDxfId="8"/>
     <tableColumn id="2" name="사용 예" dataDxfId="7"/>
@@ -2545,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -2979,7 +3155,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -3091,23 +3267,29 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.5">
+    <row r="9" spans="1:4" ht="51.75">
       <c r="A9" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>123</v>
-      </c>
       <c r="D9" s="24" t="s">
-        <v>124</v>
-      </c>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="51"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -3140,398 +3322,398 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>127</v>
-      </c>
       <c r="E1" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A3" s="58"/>
+      <c r="B3" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A5" s="58"/>
+      <c r="B5" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A6" s="58"/>
+      <c r="B6" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A7" s="58"/>
+      <c r="B7" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="C8" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="C9" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="59"/>
+      <c r="B10" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="50" t="s">
+      <c r="C10" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A11" s="59"/>
+      <c r="B11" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A12" s="59"/>
+      <c r="B12" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A13" s="59"/>
+      <c r="B13" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A14" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" ht="33">
+      <c r="A16" s="56"/>
+      <c r="B16" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="36"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="36"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="50" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="36"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A19" s="57"/>
+      <c r="B19" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A20" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A21" s="56"/>
+      <c r="B21" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="36"/>
+    </row>
+    <row r="22" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A22" s="56"/>
+      <c r="B22" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A23" s="56"/>
+      <c r="B23" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="36"/>
+    </row>
+    <row r="24" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="37"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5" ht="33">
-      <c r="A16" s="51"/>
-      <c r="B16" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="37"/>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="36"/>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="37"/>
-    </row>
-    <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" s="37"/>
-    </row>
-    <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="D23" s="40" t="s">
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:5" ht="33">
+      <c r="A25" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="36"/>
-    </row>
-    <row r="24" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="D24" s="38" t="s">
+      <c r="B25" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="E24" s="37"/>
-    </row>
-    <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="47" t="s">
+      <c r="C25" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="D25" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="36"/>
+    </row>
+    <row r="26" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A26" s="53"/>
+      <c r="B26" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C26" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D26" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" ht="82.5">
+      <c r="A27" s="53"/>
+      <c r="B27" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" spans="1:5" ht="33">
+      <c r="A28" s="53"/>
+      <c r="B28" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="37"/>
-    </row>
-    <row r="27" spans="1:5" ht="82.5">
-      <c r="A27" s="48"/>
-      <c r="B27" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="40" t="s">
+      <c r="C28" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="48"/>
-      <c r="B28" s="37" t="s">
+      <c r="D28" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A29" s="53"/>
+      <c r="B29" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="C29" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="E28" s="37"/>
-    </row>
-    <row r="29" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="36" t="s">
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A30" s="53"/>
+      <c r="B30" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="37" t="s">
+      <c r="D30" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A31" s="54"/>
+      <c r="B31" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>248</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E30" s="37"/>
-    </row>
-    <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>250</v>
       </c>
       <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:5" ht="22.5" customHeight="1">
       <c r="A32" s="37"/>
       <c r="B32" s="37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
@@ -3539,10 +3721,10 @@
     <row r="33" spans="1:5" ht="49.5">
       <c r="A33" s="44"/>
       <c r="B33" s="36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D33" s="44"/>
       <c r="E33" s="44"/>
@@ -3582,115 +3764,115 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1">
       <c r="A1" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A4" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A6" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A8" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A10" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
       <c r="A11" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="28"/>
     </row>
     <row r="14" spans="1:3" ht="22.5" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="22.5" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3721,35 +3903,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39.75" customHeight="1">
       <c r="A1" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>179</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39.75" customHeight="1">
       <c r="A2" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>182</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39.75" customHeight="1">
       <c r="A3" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>185</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3776,48 +3958,48 @@
   <sheetData>
     <row r="2" spans="5:6">
       <c r="E2" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="5:6">
+      <c r="E3" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F3" s="41" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="5:6">
-      <c r="E3" s="55" t="s">
+    <row r="4" spans="5:6">
+      <c r="E4" s="60"/>
+      <c r="F4" s="41" t="s">
         <v>209</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="5:6">
-      <c r="E4" s="55"/>
-      <c r="F4" s="41" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="5:6">
       <c r="E5" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="5:6">
       <c r="E6" s="41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3834,8 +4016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3846,135 +4028,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="56" t="s">
-        <v>256</v>
+      <c r="A1" s="47" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="46" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>257</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>259</v>
       </c>
       <c r="C3" s="46"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>260</v>
-      </c>
       <c r="C4" s="46"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="57" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="58"/>
+      <c r="A5" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="49"/>
       <c r="C5" s="44"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="C6" s="44"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="44"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="44"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="57" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="58" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="44"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="C7" s="44"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="44"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="60" t="s">
+      <c r="C9" s="44"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="63"/>
+      <c r="B10" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="44"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="62"/>
+      <c r="B11" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" s="44"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="58" t="s">
+      <c r="B12" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="44"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="58" t="s">
+      <c r="C12" s="50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="49" t="s">
         <v>274</v>
-      </c>
-      <c r="C11" s="44"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="58" t="s">
-        <v>276</v>
       </c>
       <c r="C13" s="44"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3989,4 +4171,246 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24" customHeight="1">
+      <c r="A2" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33">
+      <c r="A3" s="64"/>
+      <c r="B3" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="66">
+      <c r="A6" s="64"/>
+      <c r="B6" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24" customHeight="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" customHeight="1">
+      <c r="A8" s="64"/>
+      <c r="B8" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1">
+      <c r="A9" s="64"/>
+      <c r="B9" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1">
+      <c r="A10" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24" customHeight="1">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+    </row>
+    <row r="14" spans="1:5" ht="24" customHeight="1">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" spans="1:5" ht="24" customHeight="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+    </row>
+    <row r="16" spans="1:5" ht="24" customHeight="1">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E11" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="E2" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+</worksheet>
 </file>
--- a/Element.xlsx
+++ b/Element.xlsx
@@ -15,13 +15,14 @@
     <sheet name="박스모델" sheetId="7" r:id="rId6"/>
     <sheet name="이미지표현방법" sheetId="8" r:id="rId7"/>
     <sheet name="CSS3" sheetId="9" r:id="rId8"/>
+    <sheet name="font파일 종류" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="341">
   <si>
     <t>Element 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1422,12 +1423,78 @@
     <t>배경 이미지 적용 범위 지정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ttf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mac os</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web 폰트 (모던 브라우저)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web 폰트 (IE8 이하)</t>
+  </si>
+  <si>
+    <t>Web open Format Font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open Type Font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true type Font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embeded open Type Font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> windows / mac os 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@font-face(at-Rule)
+- 사용자 지정 폰트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p217~p218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/cssref/css3_pr_font-face_rule.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1560,6 +1627,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1774,7 +1849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1931,6 +2006,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1969,6 +2047,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3338,7 +3422,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -3347,68 +3431,68 @@
       <c r="C2" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="59" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A3" s="58"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="36" t="s">
         <v>156</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="37" t="s">
         <v>157</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="37" t="s">
         <v>159</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="58"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>169</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -3417,68 +3501,68 @@
       <c r="C8" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="56" t="s">
         <v>197</v>
       </c>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="39" t="s">
         <v>171</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="56"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="37" t="s">
         <v>172</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="56"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="36" t="s">
         <v>173</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="59"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="37" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="56"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="59"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="57"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="56" t="s">
         <v>191</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3487,68 +3571,68 @@
       <c r="C14" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="56" t="s">
         <v>226</v>
       </c>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="36" t="s">
         <v>194</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="33">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="37" t="s">
         <v>195</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="36" t="s">
         <v>198</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="37" t="s">
         <v>201</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="36" t="s">
         <v>203</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="56" t="s">
         <v>213</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -3563,7 +3647,7 @@
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="36" t="s">
         <v>215</v>
       </c>
@@ -3576,7 +3660,7 @@
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="37" t="s">
         <v>218</v>
       </c>
@@ -3589,7 +3673,7 @@
       <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="36" t="s">
         <v>220</v>
       </c>
@@ -3602,7 +3686,7 @@
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="37" t="s">
         <v>222</v>
       </c>
@@ -3615,7 +3699,7 @@
       <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="53" t="s">
         <v>229</v>
       </c>
       <c r="B25" s="36" t="s">
@@ -3630,7 +3714,7 @@
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="37" t="s">
         <v>232</v>
       </c>
@@ -3643,7 +3727,7 @@
       <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="82.5">
-      <c r="A27" s="53"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="36" t="s">
         <v>234</v>
       </c>
@@ -3656,7 +3740,7 @@
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="53"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="37" t="s">
         <v>239</v>
       </c>
@@ -3669,7 +3753,7 @@
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A29" s="53"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="36" t="s">
         <v>242</v>
       </c>
@@ -3682,7 +3766,7 @@
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="37" t="s">
         <v>245</v>
       </c>
@@ -3695,7 +3779,7 @@
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="36" t="s">
         <v>249</v>
       </c>
@@ -3965,7 +4049,7 @@
       </c>
     </row>
     <row r="3" spans="5:6">
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>207</v>
       </c>
       <c r="F3" s="41" t="s">
@@ -3973,7 +4057,7 @@
       </c>
     </row>
     <row r="4" spans="5:6">
-      <c r="E4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="41" t="s">
         <v>209</v>
       </c>
@@ -4094,7 +4178,7 @@
       <c r="C8" s="44"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>267</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -4103,21 +4187,21 @@
       <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="63"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="49" t="s">
         <v>271</v>
       </c>
       <c r="C10" s="44"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="49" t="s">
         <v>272</v>
       </c>
       <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>269</v>
       </c>
       <c r="B12" s="49" t="s">
@@ -4128,7 +4212,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="49" t="s">
         <v>274</v>
       </c>
@@ -4178,7 +4262,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
@@ -4208,7 +4292,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -4225,7 +4309,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="33">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="44" t="s">
         <v>287</v>
       </c>
@@ -4238,7 +4322,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1">
-      <c r="A4" s="64"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="44" t="s">
         <v>289</v>
       </c>
@@ -4253,7 +4337,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="24" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="44" t="s">
         <v>292</v>
       </c>
@@ -4268,7 +4352,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="66">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="44" t="s">
         <v>296</v>
       </c>
@@ -4283,7 +4367,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="44" t="s">
         <v>300</v>
       </c>
@@ -4298,7 +4382,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="44" t="s">
         <v>308</v>
       </c>
@@ -4313,7 +4397,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1">
-      <c r="A9" s="64"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="44" t="s">
         <v>305</v>
       </c>
@@ -4359,12 +4443,18 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24" customHeight="1">
+    <row r="12" spans="1:5" ht="33">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="C12" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1">
       <c r="A13" s="44"/>
@@ -4409,8 +4499,87 @@
     <hyperlink ref="E10" r:id="rId7"/>
     <hyperlink ref="E5" r:id="rId8"/>
     <hyperlink ref="E2" r:id="rId9"/>
+    <hyperlink ref="E12" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="52"/>
+    <col min="2" max="2" width="44.75" style="52" customWidth="1"/>
+    <col min="3" max="3" width="32.875" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Element.xlsx
+++ b/Element.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="363">
   <si>
     <t>Element 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1487,6 +1487,94 @@
   </si>
   <si>
     <t>https://www.w3schools.com/cssref/css3_pr_font-face_rule.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wit.nts-corp.com/2017/02/13/4258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cntofh.tistory.com/41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">폰트변환 방법 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://onlinefontconverter.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에서 웹폰트 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/cssref/css3_pr_transform.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skew(Xdeg,Ydeg) : 각도만큼 찌그러 뜨리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translate(x,y): 위치 변형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotate(deg) : 회전 변형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale(w,h) : 상대크기 변형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transitions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성이 변형될 때 중간과정을 보여주는 전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p219~p220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@keyframe(at-rule)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키프레임을 설정하여 여러 단계의 애니메이션을 연속적으로 실행할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p221~p224</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,7 +1937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2009,6 +2097,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2051,8 +2145,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3422,7 +3531,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -3431,68 +3540,68 @@
       <c r="C2" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="61" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="36" t="s">
         <v>156</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="37" t="s">
         <v>157</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="37" t="s">
         <v>159</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="62" t="s">
         <v>169</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -3501,68 +3610,68 @@
       <c r="C8" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="58" t="s">
         <v>197</v>
       </c>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="60"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="39" t="s">
         <v>171</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="60"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="37" t="s">
         <v>172</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="60"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="36" t="s">
         <v>173</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="60"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="37" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="57"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="60"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="58"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="58" t="s">
         <v>191</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3571,68 +3680,68 @@
       <c r="C14" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="58" t="s">
         <v>226</v>
       </c>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="57"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="36" t="s">
         <v>194</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="33">
-      <c r="A16" s="57"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="37" t="s">
         <v>195</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="57"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="36" t="s">
         <v>198</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="57"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="37" t="s">
         <v>201</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="58"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="36" t="s">
         <v>203</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="58" t="s">
         <v>213</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -3647,7 +3756,7 @@
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="57"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="36" t="s">
         <v>215</v>
       </c>
@@ -3660,7 +3769,7 @@
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="57"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="37" t="s">
         <v>218</v>
       </c>
@@ -3673,7 +3782,7 @@
       <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="57"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="36" t="s">
         <v>220</v>
       </c>
@@ -3686,7 +3795,7 @@
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A24" s="58"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="37" t="s">
         <v>222</v>
       </c>
@@ -3699,7 +3808,7 @@
       <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="55" t="s">
         <v>229</v>
       </c>
       <c r="B25" s="36" t="s">
@@ -3714,7 +3823,7 @@
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A26" s="54"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="37" t="s">
         <v>232</v>
       </c>
@@ -3727,7 +3836,7 @@
       <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="82.5">
-      <c r="A27" s="54"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="36" t="s">
         <v>234</v>
       </c>
@@ -3740,7 +3849,7 @@
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="54"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="37" t="s">
         <v>239</v>
       </c>
@@ -3753,7 +3862,7 @@
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A29" s="54"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="36" t="s">
         <v>242</v>
       </c>
@@ -3766,7 +3875,7 @@
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A30" s="54"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="37" t="s">
         <v>245</v>
       </c>
@@ -3779,7 +3888,7 @@
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="55"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="36" t="s">
         <v>249</v>
       </c>
@@ -4049,7 +4158,7 @@
       </c>
     </row>
     <row r="3" spans="5:6">
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="63" t="s">
         <v>207</v>
       </c>
       <c r="F3" s="41" t="s">
@@ -4057,7 +4166,7 @@
       </c>
     </row>
     <row r="4" spans="5:6">
-      <c r="E4" s="61"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="41" t="s">
         <v>209</v>
       </c>
@@ -4178,7 +4287,7 @@
       <c r="C8" s="44"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="64" t="s">
         <v>267</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -4187,21 +4296,21 @@
       <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="49" t="s">
         <v>271</v>
       </c>
       <c r="C10" s="44"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="63"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="49" t="s">
         <v>272</v>
       </c>
       <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="B12" s="49" t="s">
@@ -4212,7 +4321,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="49" t="s">
         <v>274</v>
       </c>
@@ -4259,10 +4368,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
@@ -4274,7 +4383,7 @@
     <col min="5" max="5" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1">
+    <row r="1" spans="1:6" ht="24" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>126</v>
       </c>
@@ -4291,8 +4400,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:6" ht="24" customHeight="1">
+      <c r="A2" s="67" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -4308,8 +4417,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33">
-      <c r="A3" s="65"/>
+    <row r="3" spans="1:6" ht="33">
+      <c r="A3" s="67"/>
       <c r="B3" s="44" t="s">
         <v>287</v>
       </c>
@@ -4321,8 +4430,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1">
-      <c r="A4" s="65"/>
+    <row r="4" spans="1:6" ht="24" customHeight="1">
+      <c r="A4" s="67"/>
       <c r="B4" s="44" t="s">
         <v>289</v>
       </c>
@@ -4336,8 +4445,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1">
-      <c r="A5" s="65"/>
+    <row r="5" spans="1:6" ht="24" customHeight="1">
+      <c r="A5" s="67"/>
       <c r="B5" s="44" t="s">
         <v>292</v>
       </c>
@@ -4351,8 +4460,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="66">
-      <c r="A6" s="65"/>
+    <row r="6" spans="1:6" ht="66">
+      <c r="A6" s="67"/>
       <c r="B6" s="44" t="s">
         <v>296</v>
       </c>
@@ -4366,8 +4475,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1">
-      <c r="A7" s="65"/>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="A7" s="67"/>
       <c r="B7" s="44" t="s">
         <v>300</v>
       </c>
@@ -4381,8 +4490,8 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1">
-      <c r="A8" s="65"/>
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="A8" s="67"/>
       <c r="B8" s="44" t="s">
         <v>308</v>
       </c>
@@ -4396,8 +4505,8 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1">
-      <c r="A9" s="65"/>
+    <row r="9" spans="1:6" ht="24" customHeight="1">
+      <c r="A9" s="67"/>
       <c r="B9" s="44" t="s">
         <v>305</v>
       </c>
@@ -4411,8 +4520,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:6" ht="24" customHeight="1">
+      <c r="A10" s="67" t="s">
         <v>310</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -4428,8 +4537,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:6" ht="24" customHeight="1">
+      <c r="A11" s="67"/>
       <c r="B11" s="44" t="s">
         <v>316</v>
       </c>
@@ -4443,10 +4552,10 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:6" ht="33">
+      <c r="A12" s="67"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="54" t="s">
         <v>338</v>
       </c>
       <c r="D12" s="44" t="s">
@@ -4456,37 +4565,180 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:6" ht="24" customHeight="1">
+      <c r="A13" s="67"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1">
-      <c r="A14" s="44"/>
+      <c r="E13" s="50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1">
+      <c r="A14" s="67"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="1:5" ht="24" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="E14" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1">
+      <c r="A15" s="67"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-    </row>
-    <row r="16" spans="1:5" ht="24" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
+      <c r="E15" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="F15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1">
+      <c r="A16" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1">
+      <c r="A17" s="67"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="44"/>
+    </row>
+    <row r="18" spans="1:5" ht="24" customHeight="1">
+      <c r="A18" s="67"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="44"/>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1">
+      <c r="A19" s="67"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1">
+      <c r="A20" s="67"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="44"/>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1">
+      <c r="A21" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" s="44"/>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1">
+      <c r="A22" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+    </row>
+    <row r="23" spans="1:5" ht="24" customHeight="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="74"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+    </row>
+    <row r="24" spans="1:5" ht="24" customHeight="1">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" spans="1:5" ht="24" customHeight="1">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+    </row>
+    <row r="29" spans="1:5" ht="24" customHeight="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="D16:D20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4500,9 +4752,13 @@
     <hyperlink ref="E5" r:id="rId8"/>
     <hyperlink ref="E2" r:id="rId9"/>
     <hyperlink ref="E12" r:id="rId10"/>
+    <hyperlink ref="E13" r:id="rId11"/>
+    <hyperlink ref="E14" r:id="rId12"/>
+    <hyperlink ref="E15" r:id="rId13"/>
+    <hyperlink ref="E16" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -4523,10 +4779,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="52" t="s">
         <v>329</v>
       </c>

--- a/Element.xlsx
+++ b/Element.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="15840" windowHeight="12555" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="HTML TAG" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="이미지표현방법" sheetId="8" r:id="rId7"/>
     <sheet name="CSS3" sheetId="9" r:id="rId8"/>
     <sheet name="font파일 종류" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="371">
   <si>
     <t>Element 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1575,6 +1576,40 @@
   </si>
   <si>
     <t>p221~p224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표기방법 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따옴표 묶어서 표현
+문자 여러 개 - 문자열
+"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javascript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1937,7 +1972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2103,6 +2138,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2139,29 +2177,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3343,6 +3381,59 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5">
+      <c r="A1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5"/>
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5"/>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="B5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="82.5">
+      <c r="C6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
@@ -3531,7 +3622,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -3540,68 +3631,68 @@
       <c r="C2" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="62" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="36" t="s">
         <v>156</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="37" t="s">
         <v>157</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="37" t="s">
         <v>159</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>169</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -3610,68 +3701,68 @@
       <c r="C8" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="59" t="s">
         <v>197</v>
       </c>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="62"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="39" t="s">
         <v>171</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="62"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="37" t="s">
         <v>172</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="36" t="s">
         <v>173</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="62"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="37" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="59" t="s">
         <v>191</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3680,68 +3771,68 @@
       <c r="C14" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="59" t="s">
         <v>226</v>
       </c>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="36" t="s">
         <v>194</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="33">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="37" t="s">
         <v>195</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="36" t="s">
         <v>198</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="37" t="s">
         <v>201</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="59"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="60"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="36" t="s">
         <v>203</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="59" t="s">
         <v>213</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -3756,7 +3847,7 @@
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="59"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="36" t="s">
         <v>215</v>
       </c>
@@ -3769,7 +3860,7 @@
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="37" t="s">
         <v>218</v>
       </c>
@@ -3782,7 +3873,7 @@
       <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="59"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="36" t="s">
         <v>220</v>
       </c>
@@ -3795,7 +3886,7 @@
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A24" s="60"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="37" t="s">
         <v>222</v>
       </c>
@@ -3808,7 +3899,7 @@
       <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="56" t="s">
         <v>229</v>
       </c>
       <c r="B25" s="36" t="s">
@@ -3823,7 +3914,7 @@
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="37" t="s">
         <v>232</v>
       </c>
@@ -3836,7 +3927,7 @@
       <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="82.5">
-      <c r="A27" s="56"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="36" t="s">
         <v>234</v>
       </c>
@@ -3849,7 +3940,7 @@
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="37" t="s">
         <v>239</v>
       </c>
@@ -3862,7 +3953,7 @@
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="36" t="s">
         <v>242</v>
       </c>
@@ -3875,7 +3966,7 @@
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="37" t="s">
         <v>245</v>
       </c>
@@ -3888,7 +3979,7 @@
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="36" t="s">
         <v>249</v>
       </c>
@@ -4158,7 +4249,7 @@
       </c>
     </row>
     <row r="3" spans="5:6">
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="64" t="s">
         <v>207</v>
       </c>
       <c r="F3" s="41" t="s">
@@ -4166,7 +4257,7 @@
       </c>
     </row>
     <row r="4" spans="5:6">
-      <c r="E4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="41" t="s">
         <v>209</v>
       </c>
@@ -4287,7 +4378,7 @@
       <c r="C8" s="44"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>267</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -4296,21 +4387,21 @@
       <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="49" t="s">
         <v>271</v>
       </c>
       <c r="C10" s="44"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="49" t="s">
         <v>272</v>
       </c>
       <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>269</v>
       </c>
       <c r="B12" s="49" t="s">
@@ -4321,7 +4412,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="49" t="s">
         <v>274</v>
       </c>
@@ -4370,7 +4461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -4401,7 +4492,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -4418,7 +4509,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="33">
-      <c r="A3" s="67"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="44" t="s">
         <v>287</v>
       </c>
@@ -4431,7 +4522,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="A4" s="67"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="44" t="s">
         <v>289</v>
       </c>
@@ -4446,7 +4537,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="44" t="s">
         <v>292</v>
       </c>
@@ -4461,7 +4552,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="66">
-      <c r="A6" s="67"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="44" t="s">
         <v>296</v>
       </c>
@@ -4476,7 +4567,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="44" t="s">
         <v>300</v>
       </c>
@@ -4491,7 +4582,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="A8" s="67"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="44" t="s">
         <v>308</v>
       </c>
@@ -4506,7 +4597,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1">
-      <c r="A9" s="67"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="44" t="s">
         <v>305</v>
       </c>
@@ -4521,7 +4612,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="70" t="s">
         <v>310</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -4538,7 +4629,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="A11" s="67"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="44" t="s">
         <v>316</v>
       </c>
@@ -4553,7 +4644,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33">
-      <c r="A12" s="67"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="44"/>
       <c r="C12" s="54" t="s">
         <v>338</v>
@@ -4566,7 +4657,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -4575,7 +4666,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="A14" s="67"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -4587,7 +4678,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="A15" s="67"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -4599,16 +4690,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="70" t="s">
         <v>348</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="71" t="s">
         <v>346</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="71" t="s">
         <v>358</v>
       </c>
       <c r="E16" s="50" t="s">
@@ -4616,39 +4707,39 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="24" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5" ht="24" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" ht="24" customHeight="1">
-      <c r="A19" s="67"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="44"/>
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1">
-      <c r="A20" s="67"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="44" t="s">
         <v>350</v>
       </c>
-      <c r="D20" s="71"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="44"/>
     </row>
     <row r="21" spans="1:5" ht="24" customHeight="1">
@@ -4667,24 +4758,24 @@
       <c r="E21" s="44"/>
     </row>
     <row r="22" spans="1:5" ht="24" customHeight="1">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="65" t="s">
         <v>357</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="68" t="s">
         <v>361</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="24" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="72" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
     </row>
@@ -4732,13 +4823,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D16:D20"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="A16:A20"/>
-    <mergeCell ref="D16:D20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4779,10 +4870,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="74"/>
       <c r="C1" s="52" t="s">
         <v>329</v>
       </c>
